--- a/data/trans_dic/P37_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>61,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>54,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57,84%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>60,98%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>61,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>59,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>54,83%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61,89%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>61,91%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>60,22%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>59,29%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>56,92%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>54,86%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>58,87%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,36; 66,88</t>
+          <t>56,9; 66,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,93; 66,51</t>
+          <t>57,83; 66,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,2; 65,06</t>
+          <t>55,24; 64,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,1; 62,66</t>
+          <t>54,9; 62,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,04; 64,44</t>
+          <t>50,46; 58,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,1; 65,11</t>
+          <t>51,12; 62,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,01; 63,54</t>
+          <t>56,53; 64,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,2; 58,84</t>
+          <t>57,69; 64,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,92; 64,85</t>
+          <t>54,99; 62,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 64,67</t>
+          <t>51,14; 58,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,1; 63,01</t>
+          <t>51,31; 58,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,51; 59,57</t>
+          <t>55,69; 63,96</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>57,94; 64,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>58,54; 64,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56,37; 61,98</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>54,05; 59,34</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>52,49; 57,64</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>55,1; 61,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>61,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>58,31%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>64,82%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>66,64%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>54,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>64,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>65,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>62,89%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>60,38%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>64,51%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,71; 70,98</t>
+          <t>59,17; 69,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,65; 75,15</t>
+          <t>66,02; 74,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,64; 71,0</t>
+          <t>60,87; 70,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,78; 68,66</t>
+          <t>54,49; 69,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,08; 68,28</t>
+          <t>61,26; 73,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,52; 66,18</t>
+          <t>58,33; 69,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,25; 64,49</t>
+          <t>58,52; 67,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,15; 64,63</t>
+          <t>57,28; 65,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,43; 68,21</t>
+          <t>56,14; 64,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,6; 69,64</t>
+          <t>50,95; 64,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,26; 66,52</t>
+          <t>55,15; 68,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,41; 65,7</t>
+          <t>50,01; 59,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>60,33; 67,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>62,83; 68,72</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59,84; 65,95</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>54,85; 64,96</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>59,91; 68,87</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>55,18; 62,78</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>69,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>63,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>58,66%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61,23%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>67,92%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>62,7%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>61,9%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>65,21%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,09; 78,8</t>
+          <t>56,12; 78,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,39; 73,3</t>
+          <t>53,71; 72,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,11; 80,31</t>
+          <t>65,13; 80,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,05; 72,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,59; 68,55</t>
+          <t>47,99; 74,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,61; 69,88</t>
+          <t>57,67; 73,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>51,11; 66,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53,49; 68,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>60,05; 74,57</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>57,04; 68,81</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62,4; 72,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>56,96; 74,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>58,17; 73,86</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>55,83; 67,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>61,03; 73,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>57,23; 71,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>60,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59,52%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>55,58%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>63,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>63,85%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>58,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>63,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>61,67%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>57,71%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>57,09%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>59,69%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,83; 68,26</t>
+          <t>60,34; 66,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,94; 68,89</t>
+          <t>62,62; 68,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,39; 67,7</t>
+          <t>60,6; 66,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,92; 62,94</t>
+          <t>55,97; 63,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,29</t>
+          <t>54,07; 61,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,3; 64,06</t>
+          <t>56,65; 64,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,55; 62,82</t>
+          <t>59,28; 64,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,31; 58,66</t>
+          <t>58,66; 63,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,47; 65,91</t>
+          <t>56,96; 61,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,0; 65,74</t>
+          <t>52,29; 58,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,44; 64,28</t>
+          <t>53,4; 59,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,22; 60,12</t>
+          <t>55,37; 61,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>60,82; 65,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61,36; 65,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>59,88; 63,61</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 60,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>54,76; 59,37</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>57,16; 61,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>914.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>892.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>852.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>685.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>995122</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>994829</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>954417</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>134662</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>120857</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>940463</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1058502</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1079956</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1042946</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>128409</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>127020</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1055055</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2053625</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2074785</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1997364</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>263071</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>247877</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1995518</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>917430; 1070008</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>929501; 1064527</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>876085; 1018534</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>125142; 143343</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>111562; 129913</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>831255; 1019093</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>992437; 1127025</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1023844; 1141408</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>980377; 1111950</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>119761; 136876</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>118414; 135474</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>982324; 1128163</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1951456; 2156105</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1979813; 2167713</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1898824; 2087866</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>249809; 274268</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>237190; 260439</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1867746; 2101147</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>731.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>696.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>860275</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>947773</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>875885</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44774</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47231</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>865427</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>857997</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>816415</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>809049</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37758</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40414</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>752413</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1718272</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1764188</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1684934</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>82532</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>87646</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1617840</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>788971; 927539</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>890869; 1007949</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>814939; 943002</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39193; 49900</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43056; 51901</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>798063; 944960</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>788469; 910384</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>761118; 871175</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>752497; 859352</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32990; 42069</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36173; 44847</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>685707; 815508</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1617199; 1802611</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1682740; 1840295</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1603214; 1766986</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>74971; 88786</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>81394; 93575</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1511629; 1719890</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>279789</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>267802</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>299829</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>266489</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>256614</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>225683</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>242376</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>270131</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>536403</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>493485</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>542206</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>536620</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>226864; 317140</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>221514; 299158</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>265087; 325698</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>200083; 309371</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>222354; 284698</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>196639; 254504</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>211714; 271114</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>231244; 302971</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>459449; 583348</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>445084; 539166</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>490003; 588147</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>470927; 588478</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>863.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>825.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>510.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>824.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>963.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>738.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1553.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1839.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1788.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1137.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2135186</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2210404</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2130131</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>179436</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>168089</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2072379</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2173113</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2122054</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2094372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>166167</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>167434</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2077599</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4308299</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4332458</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4224503</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>345603</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>335523</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4149978</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2021166; 2234924</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2109817; 2300641</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2019145; 2229562</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>167839; 189452</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>157529; 177858</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1932600; 2199377</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2067824; 2264508</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2046169; 2204410</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2004551; 2176721</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>156320; 175596</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>158254; 176571</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1960622; 2189189</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4158888; 4461286</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4207220; 4475194</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4101961; 4357617</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>331622; 360331</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>321805; 348906</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3974130; 4307478</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
